--- a/static/HSK2.xlsx
+++ b/static/HSK2.xlsx
@@ -5,22 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgiessing/git/vocabApp/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgiessing/Box/IBM Systems/git/vocabApp/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE66DCB4-54EC-5A43-B33C-3F9DC6CCE128}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8292BC65-1507-3D40-BD1F-3F6B133A6ED3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full List" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Full List'!$A$1:$C$302</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="878">
   <si>
     <t>Chinese</t>
   </si>
@@ -1738,9 +1741,6 @@
     <t>color</t>
   </si>
   <si>
-    <t>Verb</t>
-  </si>
-  <si>
     <t>谢谢</t>
   </si>
   <si>
@@ -2414,9 +2414,6 @@
   </si>
   <si>
     <t>may</t>
-  </si>
-  <si>
-    <t>Adjective</t>
   </si>
   <si>
     <t>好</t>
@@ -3050,10 +3047,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C304"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C302"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A281" workbookViewId="0">
-      <selection activeCell="A305" sqref="A305:XFD1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -3074,7 +3072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" customHeight="1">
+    <row r="2" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -3085,7 +3083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3096,7 +3094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" customHeight="1">
+    <row r="4" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -3107,7 +3105,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" customHeight="1">
+    <row r="5" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3118,7 +3116,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" customHeight="1">
+    <row r="6" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -3129,7 +3127,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" customHeight="1">
+    <row r="7" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -3140,7 +3138,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.5" customHeight="1">
+    <row r="8" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -3151,7 +3149,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" customHeight="1">
+    <row r="9" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -3162,7 +3160,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.5" customHeight="1">
+    <row r="10" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -3173,7 +3171,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.5" customHeight="1">
+    <row r="11" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -3184,7 +3182,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" customHeight="1">
+    <row r="12" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -3195,7 +3193,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.5" customHeight="1">
+    <row r="13" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -3206,7 +3204,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.5" customHeight="1">
+    <row r="14" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
@@ -3217,7 +3215,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.5" customHeight="1">
+    <row r="15" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
@@ -3228,7 +3226,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.5" customHeight="1">
+    <row r="16" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
@@ -3239,7 +3237,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.5" customHeight="1">
+    <row r="17" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
@@ -3250,7 +3248,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.5" customHeight="1">
+    <row r="18" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
@@ -3261,7 +3259,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.5" customHeight="1">
+    <row r="19" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>52</v>
       </c>
@@ -3272,7 +3270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.5" customHeight="1">
+    <row r="20" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>54</v>
       </c>
@@ -3283,7 +3281,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.5" customHeight="1">
+    <row r="21" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>56</v>
       </c>
@@ -3294,7 +3292,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16.5" customHeight="1">
+    <row r="22" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>59</v>
       </c>
@@ -3305,7 +3303,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16.5" customHeight="1">
+    <row r="23" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>62</v>
       </c>
@@ -3316,7 +3314,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.5" customHeight="1">
+    <row r="24" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>65</v>
       </c>
@@ -3327,7 +3325,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.5" customHeight="1">
+    <row r="25" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>68</v>
       </c>
@@ -3338,7 +3336,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.5" customHeight="1">
+    <row r="26" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>71</v>
       </c>
@@ -3349,7 +3347,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16.5" customHeight="1">
+    <row r="27" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>74</v>
       </c>
@@ -3360,7 +3358,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16.5" customHeight="1">
+    <row r="28" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>77</v>
       </c>
@@ -3371,7 +3369,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16.5" customHeight="1">
+    <row r="29" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>80</v>
       </c>
@@ -3382,7 +3380,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16.5" customHeight="1">
+    <row r="30" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>83</v>
       </c>
@@ -3393,7 +3391,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16.5" customHeight="1">
+    <row r="31" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>86</v>
       </c>
@@ -3404,7 +3402,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16.5" customHeight="1">
+    <row r="32" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>89</v>
       </c>
@@ -3415,7 +3413,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16.5" customHeight="1">
+    <row r="33" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>92</v>
       </c>
@@ -3426,7 +3424,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16.5" customHeight="1">
+    <row r="34" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>95</v>
       </c>
@@ -3437,7 +3435,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="16.5" customHeight="1">
+    <row r="35" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>98</v>
       </c>
@@ -3448,7 +3446,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="16.5" customHeight="1">
+    <row r="36" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>100</v>
       </c>
@@ -3459,7 +3457,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="16.5" customHeight="1">
+    <row r="37" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>103</v>
       </c>
@@ -3470,7 +3468,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="16.5" customHeight="1">
+    <row r="38" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>106</v>
       </c>
@@ -3481,7 +3479,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="16.5" customHeight="1">
+    <row r="39" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>109</v>
       </c>
@@ -3492,7 +3490,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="16.5" customHeight="1">
+    <row r="40" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>112</v>
       </c>
@@ -3503,7 +3501,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="16.5" customHeight="1">
+    <row r="41" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>115</v>
       </c>
@@ -3514,7 +3512,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="16.5" customHeight="1">
+    <row r="42" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>118</v>
       </c>
@@ -3525,7 +3523,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="16.5" customHeight="1">
+    <row r="43" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>121</v>
       </c>
@@ -3536,7 +3534,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="16.5" customHeight="1">
+    <row r="44" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>124</v>
       </c>
@@ -3547,7 +3545,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="16.5" customHeight="1">
+    <row r="45" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>127</v>
       </c>
@@ -3558,7 +3556,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="16.5" customHeight="1">
+    <row r="46" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>130</v>
       </c>
@@ -3569,7 +3567,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="16.5" customHeight="1">
+    <row r="47" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>133</v>
       </c>
@@ -3580,7 +3578,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="16.5" customHeight="1">
+    <row r="48" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>135</v>
       </c>
@@ -3591,7 +3589,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="16.5" customHeight="1">
+    <row r="49" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>138</v>
       </c>
@@ -3602,7 +3600,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="16.5" customHeight="1">
+    <row r="50" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>141</v>
       </c>
@@ -3613,7 +3611,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="16.5" customHeight="1">
+    <row r="51" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>143</v>
       </c>
@@ -3624,7 +3622,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="16.5" customHeight="1">
+    <row r="52" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>146</v>
       </c>
@@ -3635,7 +3633,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="16.5" customHeight="1">
+    <row r="53" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>149</v>
       </c>
@@ -3646,7 +3644,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="16.5" customHeight="1">
+    <row r="54" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>152</v>
       </c>
@@ -3657,7 +3655,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="16.5" customHeight="1">
+    <row r="55" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>155</v>
       </c>
@@ -3668,7 +3666,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="16.5" customHeight="1">
+    <row r="56" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>158</v>
       </c>
@@ -3679,7 +3677,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="16.5" customHeight="1">
+    <row r="57" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>161</v>
       </c>
@@ -3690,7 +3688,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="16.5" customHeight="1">
+    <row r="58" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>164</v>
       </c>
@@ -3701,7 +3699,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="16.5" customHeight="1">
+    <row r="59" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>167</v>
       </c>
@@ -3712,7 +3710,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="16.5" customHeight="1">
+    <row r="60" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A60" s="2" t="s">
         <v>170</v>
       </c>
@@ -3723,7 +3721,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="16.5" customHeight="1">
+    <row r="61" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>173</v>
       </c>
@@ -3734,7 +3732,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="16.5" customHeight="1">
+    <row r="62" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>176</v>
       </c>
@@ -3745,7 +3743,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="16.5" customHeight="1">
+    <row r="63" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A63" s="2" t="s">
         <v>179</v>
       </c>
@@ -3756,7 +3754,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="16.5" customHeight="1">
+    <row r="64" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A64" s="2" t="s">
         <v>182</v>
       </c>
@@ -3767,7 +3765,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="16.5" customHeight="1">
+    <row r="65" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A65" s="2" t="s">
         <v>185</v>
       </c>
@@ -3778,7 +3776,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="16.5" customHeight="1">
+    <row r="66" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A66" s="2" t="s">
         <v>188</v>
       </c>
@@ -3789,7 +3787,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="16.5" customHeight="1">
+    <row r="67" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A67" s="2" t="s">
         <v>191</v>
       </c>
@@ -3800,7 +3798,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="16.5" customHeight="1">
+    <row r="68" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A68" s="2" t="s">
         <v>194</v>
       </c>
@@ -3811,7 +3809,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="16.5" customHeight="1">
+    <row r="69" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A69" s="2" t="s">
         <v>197</v>
       </c>
@@ -3822,7 +3820,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="16.5" customHeight="1">
+    <row r="70" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A70" s="2" t="s">
         <v>199</v>
       </c>
@@ -3833,7 +3831,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="16.5" customHeight="1">
+    <row r="71" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A71" s="2" t="s">
         <v>202</v>
       </c>
@@ -3844,7 +3842,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="16.5" customHeight="1">
+    <row r="72" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A72" s="2" t="s">
         <v>205</v>
       </c>
@@ -3855,7 +3853,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="16.5" customHeight="1">
+    <row r="73" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A73" s="2" t="s">
         <v>208</v>
       </c>
@@ -3866,7 +3864,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="16.5" customHeight="1">
+    <row r="74" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A74" s="2" t="s">
         <v>211</v>
       </c>
@@ -3877,7 +3875,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="16.5" customHeight="1">
+    <row r="75" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A75" s="2" t="s">
         <v>214</v>
       </c>
@@ -3888,7 +3886,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="16.5" customHeight="1">
+    <row r="76" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A76" s="2" t="s">
         <v>217</v>
       </c>
@@ -3899,7 +3897,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="16.5" customHeight="1">
+    <row r="77" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A77" s="2" t="s">
         <v>220</v>
       </c>
@@ -3910,7 +3908,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="16.5" customHeight="1">
+    <row r="78" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A78" s="2" t="s">
         <v>223</v>
       </c>
@@ -3957,7 +3955,7 @@
       </c>
       <c r="C82" s="4"/>
     </row>
-    <row r="83" spans="1:3" ht="16.5" customHeight="1">
+    <row r="83" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A83" s="2" t="s">
         <v>233</v>
       </c>
@@ -3968,7 +3966,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="16.5" customHeight="1">
+    <row r="84" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A84" s="2" t="s">
         <v>236</v>
       </c>
@@ -3979,7 +3977,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="16.5" customHeight="1">
+    <row r="85" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A85" s="2" t="s">
         <v>239</v>
       </c>
@@ -3990,7 +3988,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="16.5" customHeight="1">
+    <row r="86" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A86" s="2" t="s">
         <v>242</v>
       </c>
@@ -4001,7 +3999,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="16.5" customHeight="1">
+    <row r="87" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A87" s="2" t="s">
         <v>245</v>
       </c>
@@ -4012,7 +4010,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="16.5" customHeight="1">
+    <row r="88" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A88" s="2" t="s">
         <v>248</v>
       </c>
@@ -4023,7 +4021,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="16.5" customHeight="1">
+    <row r="89" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A89" s="2" t="s">
         <v>251</v>
       </c>
@@ -4034,7 +4032,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="16.5" customHeight="1">
+    <row r="90" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A90" s="2" t="s">
         <v>254</v>
       </c>
@@ -4045,7 +4043,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="16.5" customHeight="1">
+    <row r="91" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A91" s="2" t="s">
         <v>257</v>
       </c>
@@ -4056,7 +4054,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="16.5" customHeight="1">
+    <row r="92" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A92" s="2" t="s">
         <v>260</v>
       </c>
@@ -4067,7 +4065,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="16.5" customHeight="1">
+    <row r="93" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A93" s="2" t="s">
         <v>263</v>
       </c>
@@ -4078,7 +4076,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="16.5" customHeight="1">
+    <row r="94" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A94" s="2" t="s">
         <v>266</v>
       </c>
@@ -4089,7 +4087,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="16.5" customHeight="1">
+    <row r="95" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A95" s="2" t="s">
         <v>269</v>
       </c>
@@ -4100,7 +4098,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="16.5" customHeight="1">
+    <row r="96" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A96" s="2" t="s">
         <v>272</v>
       </c>
@@ -4111,7 +4109,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="16.5" customHeight="1">
+    <row r="97" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A97" s="2" t="s">
         <v>275</v>
       </c>
@@ -4122,7 +4120,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="16.5" customHeight="1">
+    <row r="98" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A98" s="2" t="s">
         <v>278</v>
       </c>
@@ -4133,7 +4131,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="16.5" customHeight="1">
+    <row r="99" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A99" s="2" t="s">
         <v>281</v>
       </c>
@@ -4144,7 +4142,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="16.5" customHeight="1">
+    <row r="100" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A100" s="2" t="s">
         <v>284</v>
       </c>
@@ -4155,7 +4153,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="16.5" customHeight="1">
+    <row r="101" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A101" s="2" t="s">
         <v>287</v>
       </c>
@@ -4166,7 +4164,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="16.5" customHeight="1">
+    <row r="102" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A102" s="2" t="s">
         <v>289</v>
       </c>
@@ -4177,7 +4175,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="16.5" customHeight="1">
+    <row r="103" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A103" s="2" t="s">
         <v>292</v>
       </c>
@@ -4188,7 +4186,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="16.5" customHeight="1">
+    <row r="104" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A104" s="2" t="s">
         <v>295</v>
       </c>
@@ -4199,7 +4197,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="16.5" customHeight="1">
+    <row r="105" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A105" s="2" t="s">
         <v>298</v>
       </c>
@@ -4210,7 +4208,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="16.5" customHeight="1">
+    <row r="106" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A106" s="2" t="s">
         <v>301</v>
       </c>
@@ -4221,7 +4219,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="16.5" customHeight="1">
+    <row r="107" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A107" s="2" t="s">
         <v>304</v>
       </c>
@@ -4232,7 +4230,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="16.5" customHeight="1">
+    <row r="108" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A108" s="2" t="s">
         <v>307</v>
       </c>
@@ -4243,7 +4241,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="16.5" customHeight="1">
+    <row r="109" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A109" s="2" t="s">
         <v>310</v>
       </c>
@@ -4254,7 +4252,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="16.5" customHeight="1">
+    <row r="110" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A110" s="2" t="s">
         <v>313</v>
       </c>
@@ -4265,7 +4263,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="16.5" customHeight="1">
+    <row r="111" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A111" s="2" t="s">
         <v>316</v>
       </c>
@@ -4276,7 +4274,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="16.5" customHeight="1">
+    <row r="112" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A112" s="2" t="s">
         <v>318</v>
       </c>
@@ -4287,7 +4285,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="16.5" customHeight="1">
+    <row r="113" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A113" s="2" t="s">
         <v>321</v>
       </c>
@@ -4298,7 +4296,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="16.5" customHeight="1">
+    <row r="114" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A114" s="2" t="s">
         <v>324</v>
       </c>
@@ -4309,7 +4307,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="16.5" customHeight="1">
+    <row r="115" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A115" s="2" t="s">
         <v>327</v>
       </c>
@@ -4320,7 +4318,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="16.5" customHeight="1">
+    <row r="116" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A116" s="2" t="s">
         <v>330</v>
       </c>
@@ -4331,7 +4329,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="16.5" customHeight="1">
+    <row r="117" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A117" s="2" t="s">
         <v>333</v>
       </c>
@@ -4342,7 +4340,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="16.5" customHeight="1">
+    <row r="118" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A118" s="2" t="s">
         <v>336</v>
       </c>
@@ -4353,7 +4351,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="16.5" customHeight="1">
+    <row r="119" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A119" s="2" t="s">
         <v>339</v>
       </c>
@@ -4364,7 +4362,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="16.5" customHeight="1">
+    <row r="120" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A120" s="2" t="s">
         <v>341</v>
       </c>
@@ -4375,7 +4373,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="16.5" customHeight="1">
+    <row r="121" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A121" s="2" t="s">
         <v>344</v>
       </c>
@@ -4386,7 +4384,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="16.5" customHeight="1">
+    <row r="122" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A122" s="2" t="s">
         <v>347</v>
       </c>
@@ -4397,7 +4395,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="16.5" customHeight="1">
+    <row r="123" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A123" s="2" t="s">
         <v>349</v>
       </c>
@@ -4408,7 +4406,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="16.5" customHeight="1">
+    <row r="124" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A124" s="2" t="s">
         <v>352</v>
       </c>
@@ -4419,7 +4417,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="16.5" customHeight="1">
+    <row r="125" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A125" s="2" t="s">
         <v>354</v>
       </c>
@@ -4430,7 +4428,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="16.5" customHeight="1">
+    <row r="126" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A126" s="2" t="s">
         <v>357</v>
       </c>
@@ -4441,7 +4439,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="16.5" customHeight="1">
+    <row r="127" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A127" s="2" t="s">
         <v>360</v>
       </c>
@@ -4452,7 +4450,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="16.5" customHeight="1">
+    <row r="128" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A128" s="2" t="s">
         <v>363</v>
       </c>
@@ -4463,7 +4461,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="16.5" customHeight="1">
+    <row r="129" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A129" s="2" t="s">
         <v>366</v>
       </c>
@@ -4474,7 +4472,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="16.5" customHeight="1">
+    <row r="130" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A130" s="2" t="s">
         <v>369</v>
       </c>
@@ -4485,7 +4483,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="16.5" customHeight="1">
+    <row r="131" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A131" s="2" t="s">
         <v>372</v>
       </c>
@@ -4496,7 +4494,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="16.5" customHeight="1">
+    <row r="132" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A132" s="2" t="s">
         <v>375</v>
       </c>
@@ -4507,7 +4505,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="16.5" customHeight="1">
+    <row r="133" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A133" s="2" t="s">
         <v>378</v>
       </c>
@@ -4518,7 +4516,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="16.5" customHeight="1">
+    <row r="134" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A134" s="2" t="s">
         <v>381</v>
       </c>
@@ -4529,7 +4527,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="16.5" customHeight="1">
+    <row r="135" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A135" s="2" t="s">
         <v>384</v>
       </c>
@@ -4540,7 +4538,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="16.5" customHeight="1">
+    <row r="136" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A136" s="2" t="s">
         <v>387</v>
       </c>
@@ -4551,7 +4549,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="16.5" customHeight="1">
+    <row r="137" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A137" s="2" t="s">
         <v>390</v>
       </c>
@@ -4562,7 +4560,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="16.5" customHeight="1">
+    <row r="138" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A138" s="2" t="s">
         <v>393</v>
       </c>
@@ -4573,7 +4571,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="16.5" customHeight="1">
+    <row r="139" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A139" s="2" t="s">
         <v>396</v>
       </c>
@@ -4584,7 +4582,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="16.5" customHeight="1">
+    <row r="140" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A140" s="2" t="s">
         <v>399</v>
       </c>
@@ -4595,7 +4593,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="16.5" customHeight="1">
+    <row r="141" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A141" s="2" t="s">
         <v>402</v>
       </c>
@@ -4606,7 +4604,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="16.5" customHeight="1">
+    <row r="142" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A142" s="2" t="s">
         <v>405</v>
       </c>
@@ -4617,7 +4615,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="16.5" customHeight="1">
+    <row r="143" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A143" s="2" t="s">
         <v>408</v>
       </c>
@@ -4628,7 +4626,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="16.5" customHeight="1">
+    <row r="144" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A144" s="2" t="s">
         <v>411</v>
       </c>
@@ -4639,7 +4637,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="16.5" customHeight="1">
+    <row r="145" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A145" s="2" t="s">
         <v>414</v>
       </c>
@@ -4650,7 +4648,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="16.5" customHeight="1">
+    <row r="146" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A146" s="2" t="s">
         <v>417</v>
       </c>
@@ -4661,7 +4659,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="16.5" customHeight="1">
+    <row r="147" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A147" s="2" t="s">
         <v>420</v>
       </c>
@@ -4672,7 +4670,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="16.5" customHeight="1">
+    <row r="148" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A148" s="2" t="s">
         <v>423</v>
       </c>
@@ -4683,7 +4681,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="16.5" customHeight="1">
+    <row r="149" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A149" s="2" t="s">
         <v>426</v>
       </c>
@@ -4694,7 +4692,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="16.5" customHeight="1">
+    <row r="150" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A150" s="2" t="s">
         <v>429</v>
       </c>
@@ -4705,7 +4703,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="16.5" customHeight="1">
+    <row r="151" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A151" s="2" t="s">
         <v>432</v>
       </c>
@@ -4716,7 +4714,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="16.5" customHeight="1">
+    <row r="152" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A152" s="2" t="s">
         <v>435</v>
       </c>
@@ -4727,7 +4725,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="16.5" customHeight="1">
+    <row r="153" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A153" s="2" t="s">
         <v>438</v>
       </c>
@@ -4738,7 +4736,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="16.5" customHeight="1">
+    <row r="154" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A154" s="2" t="s">
         <v>441</v>
       </c>
@@ -4749,7 +4747,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="16.5" customHeight="1">
+    <row r="155" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A155" s="2" t="s">
         <v>444</v>
       </c>
@@ -4760,7 +4758,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="16.5" customHeight="1">
+    <row r="156" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A156" s="2" t="s">
         <v>447</v>
       </c>
@@ -4771,7 +4769,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="16.5" customHeight="1">
+    <row r="157" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A157" s="2" t="s">
         <v>450</v>
       </c>
@@ -4782,7 +4780,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="16.5" customHeight="1">
+    <row r="158" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A158" s="2" t="s">
         <v>453</v>
       </c>
@@ -4793,7 +4791,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="16.5" customHeight="1">
+    <row r="159" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A159" s="2" t="s">
         <v>456</v>
       </c>
@@ -4804,7 +4802,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="16.5" customHeight="1">
+    <row r="160" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A160" s="2" t="s">
         <v>459</v>
       </c>
@@ -4815,7 +4813,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="16.5" customHeight="1">
+    <row r="161" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A161" s="2" t="s">
         <v>462</v>
       </c>
@@ -4826,7 +4824,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="16.5" customHeight="1">
+    <row r="162" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A162" s="2" t="s">
         <v>465</v>
       </c>
@@ -4837,7 +4835,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="16.5" customHeight="1">
+    <row r="163" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A163" s="2" t="s">
         <v>468</v>
       </c>
@@ -4848,7 +4846,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="16.5" customHeight="1">
+    <row r="164" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A164" s="2" t="s">
         <v>471</v>
       </c>
@@ -4859,7 +4857,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="16.5" customHeight="1">
+    <row r="165" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A165" s="2" t="s">
         <v>474</v>
       </c>
@@ -4870,7 +4868,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="16.5" customHeight="1">
+    <row r="166" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A166" s="2" t="s">
         <v>477</v>
       </c>
@@ -4881,7 +4879,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="16.5" customHeight="1">
+    <row r="167" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A167" s="2" t="s">
         <v>480</v>
       </c>
@@ -4892,7 +4890,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="16.5" customHeight="1">
+    <row r="168" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A168" s="2" t="s">
         <v>483</v>
       </c>
@@ -4903,7 +4901,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="16.5" customHeight="1">
+    <row r="169" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A169" s="2" t="s">
         <v>486</v>
       </c>
@@ -4914,7 +4912,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="16.5" customHeight="1">
+    <row r="170" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A170" s="2" t="s">
         <v>489</v>
       </c>
@@ -4925,7 +4923,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="16.5" customHeight="1">
+    <row r="171" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A171" s="2" t="s">
         <v>492</v>
       </c>
@@ -4936,7 +4934,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="16.5" customHeight="1">
+    <row r="172" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A172" s="2" t="s">
         <v>495</v>
       </c>
@@ -4947,7 +4945,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="16.5" customHeight="1">
+    <row r="173" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A173" s="2" t="s">
         <v>498</v>
       </c>
@@ -4958,7 +4956,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="16.5" customHeight="1">
+    <row r="174" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A174" s="2" t="s">
         <v>501</v>
       </c>
@@ -4969,7 +4967,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="16.5" customHeight="1">
+    <row r="175" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A175" s="2" t="s">
         <v>504</v>
       </c>
@@ -4980,7 +4978,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="16.5" customHeight="1">
+    <row r="176" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A176" s="2" t="s">
         <v>507</v>
       </c>
@@ -4991,7 +4989,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="16.5" customHeight="1">
+    <row r="177" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A177" s="2" t="s">
         <v>510</v>
       </c>
@@ -5002,7 +5000,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="16.5" customHeight="1">
+    <row r="178" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A178" s="2" t="s">
         <v>513</v>
       </c>
@@ -5013,7 +5011,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="16.5" customHeight="1">
+    <row r="179" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A179" s="2" t="s">
         <v>516</v>
       </c>
@@ -5024,7 +5022,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="16.5" customHeight="1">
+    <row r="180" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A180" s="2" t="s">
         <v>519</v>
       </c>
@@ -5035,7 +5033,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="16.5" customHeight="1">
+    <row r="181" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A181" s="2" t="s">
         <v>522</v>
       </c>
@@ -5046,7 +5044,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="16.5" customHeight="1">
+    <row r="182" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A182" s="2" t="s">
         <v>525</v>
       </c>
@@ -5057,7 +5055,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="16.5" customHeight="1">
+    <row r="183" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A183" s="2" t="s">
         <v>528</v>
       </c>
@@ -5068,7 +5066,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="16.5" customHeight="1">
+    <row r="184" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A184" s="2" t="s">
         <v>531</v>
       </c>
@@ -5079,7 +5077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="16.5" customHeight="1">
+    <row r="185" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A185" s="2" t="s">
         <v>533</v>
       </c>
@@ -5090,7 +5088,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="16.5" customHeight="1">
+    <row r="186" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A186" s="2" t="s">
         <v>536</v>
       </c>
@@ -5101,7 +5099,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="16.5" customHeight="1">
+    <row r="187" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A187" s="2" t="s">
         <v>539</v>
       </c>
@@ -5112,7 +5110,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="16.5" customHeight="1">
+    <row r="188" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A188" s="2" t="s">
         <v>542</v>
       </c>
@@ -5123,7 +5121,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="16.5" customHeight="1">
+    <row r="189" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A189" s="2" t="s">
         <v>545</v>
       </c>
@@ -5134,7 +5132,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="16.5" customHeight="1">
+    <row r="190" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A190" s="2" t="s">
         <v>548</v>
       </c>
@@ -5145,7 +5143,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="16.5" customHeight="1">
+    <row r="191" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A191" s="2" t="s">
         <v>551</v>
       </c>
@@ -5156,7 +5154,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="16.5" customHeight="1">
+    <row r="192" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A192" s="2" t="s">
         <v>554</v>
       </c>
@@ -5167,7 +5165,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="16.5" customHeight="1">
+    <row r="193" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A193" s="2" t="s">
         <v>557</v>
       </c>
@@ -5178,7 +5176,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="16.5" customHeight="1">
+    <row r="194" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A194" s="2" t="s">
         <v>560</v>
       </c>
@@ -5189,7 +5187,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="16.5" customHeight="1">
+    <row r="195" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A195" s="2" t="s">
         <v>563</v>
       </c>
@@ -5200,7 +5198,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="16.5" customHeight="1">
+    <row r="196" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A196" s="2" t="s">
         <v>566</v>
       </c>
@@ -5211,7 +5209,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="16.5" customHeight="1">
+    <row r="197" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A197" s="2" t="s">
         <v>569</v>
       </c>
@@ -5222,1176 +5220,1167 @@
         <v>571</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15" customHeight="1">
+    <row r="198" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A198" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="B198" s="4"/>
-      <c r="C198" s="4"/>
-    </row>
-    <row r="199" spans="1:3" ht="16.5" customHeight="1">
+      <c r="B198" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A199" s="2" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="16.5" customHeight="1">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A200" s="2" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="16.5" customHeight="1">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A201" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="16.5" customHeight="1">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A202" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="16.5" customHeight="1">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A203" s="2" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="16.5" customHeight="1">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A204" s="2" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="16.5" customHeight="1">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A205" s="2" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="16.5" customHeight="1">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A206" s="2" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="16.5" customHeight="1">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A207" s="2" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="16.5" customHeight="1">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A208" s="2" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="16.5" customHeight="1">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A209" s="2" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="16.5" customHeight="1">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A210" s="2" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="16.5" customHeight="1">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A211" s="2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="16.5" customHeight="1">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A212" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" ht="16.5" customHeight="1">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A213" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="16.5" customHeight="1">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A214" s="2" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="16.5" customHeight="1">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="16.5" hidden="1" customHeight="1">
       <c r="A215" s="2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A216" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A217" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A218" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A219" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A220" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A221" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A222" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A223" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A224" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A225" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A226" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A227" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A228" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A229" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A230" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A231" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A232" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C232" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A216" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A217" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A218" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A219" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A220" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A221" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A222" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A223" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A224" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A225" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A226" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A227" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A228" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A229" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A230" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A231" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A232" s="2" t="s">
+    </row>
+    <row r="233" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A233" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A234" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A235" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A236" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A237" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A238" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A239" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A240" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A241" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A242" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A243" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A244" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A245" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A246" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A247" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A248" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A249" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A250" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A251" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A252" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A253" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A254" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A255" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A256" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A257" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A258" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A259" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A260" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A261" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A262" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A263" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A264" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A265" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A266" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A267" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A268" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A269" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A270" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A271" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A272" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A273" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A274" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A275" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A276" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A277" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A278" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A279" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A280" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A281" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A282" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A283" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A284" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A285" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A286" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A287" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A288" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A289" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A290" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A291" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A292" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="B292" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="B232" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A233" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A234" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A235" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A236" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A237" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A238" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A239" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A240" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A241" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A242" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A243" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A244" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A245" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A246" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A247" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A248" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A249" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A250" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A251" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A252" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A253" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A254" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A255" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A256" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A257" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A258" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A259" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A260" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A261" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A262" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A263" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A264" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A265" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A266" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A267" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A268" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A269" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A270" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A271" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A272" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A273" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A274" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A275" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" ht="15" customHeight="1">
-      <c r="A276" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="B276" s="4"/>
-      <c r="C276" s="4"/>
-    </row>
-    <row r="277" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A277" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A278" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A279" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A280" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A281" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A282" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A283" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A284" s="2" t="s">
+      <c r="C292" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A293" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A294" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A295" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A296" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A297" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A298" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A299" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A300" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A301" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="16.5" hidden="1" customHeight="1">
+      <c r="A302" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="C302" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="B284" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A285" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A286" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A287" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A288" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A289" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A290" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A291" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A292" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A293" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="C293" s="2" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A294" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A295" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A296" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A297" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A298" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A299" s="2" t="s">
-        <v>863</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A300" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A301" s="2" t="s">
-        <v>869</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A302" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A303" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A304" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>822</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C302" xr:uid="{3A655587-D0CA-EB4D-A7AA-B5C224EF4771}">
+    <filterColumn colId="2">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
